--- a/ky/downloads/data-excel/6.2.1.1.xlsx
+++ b/ky/downloads/data-excel/6.2.1.1.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>(в процентах)</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>(in percent)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
     <xf numFmtId="38" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -378,6 +381,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -696,11 +702,9 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
@@ -708,7 +712,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="39.75" customHeight="1">
+    <row r="1" spans="1:16" ht="39.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -724,7 +728,7 @@
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>28</v>
       </c>
@@ -740,7 +744,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" thickBot="1">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" thickBot="1">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -756,8 +760,9 @@
       <c r="M3" s="29"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" ht="13.5" thickBot="1">
+      <c r="P3" s="29"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -803,8 +808,11 @@
       <c r="O4" s="31">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="31">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -850,8 +858,11 @@
       <c r="O5" s="32">
         <v>42.620582506455563</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="32">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
@@ -897,8 +908,11 @@
       <c r="O6" s="33">
         <v>8.1443914479075037</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="33">
+        <v>8.6767564891727478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
@@ -944,8 +958,11 @@
       <c r="O7" s="33">
         <v>10.715961386284755</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="33">
+        <v>12.226605469730881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -991,8 +1008,11 @@
       <c r="O8" s="33">
         <v>81.977461999426666</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="33">
+        <v>78.520866131691164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
@@ -1038,8 +1058,11 @@
       <c r="O9" s="33">
         <v>29.828871240443185</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="33">
+        <v>59.466452648968115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
@@ -1085,8 +1108,11 @@
       <c r="O10" s="33">
         <v>9.7218425128664112</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="33">
+        <v>26.635270208942913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
@@ -1132,8 +1158,11 @@
       <c r="O11" s="33">
         <v>8.6167819403064012</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="33">
+        <v>8.166450559693871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>23</v>
       </c>
@@ -1179,8 +1208,11 @@
       <c r="O12" s="33">
         <v>69.915337594090886</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="33">
+        <v>74.601894583630667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
@@ -1226,8 +1258,11 @@
       <c r="O13" s="33">
         <v>99.08571752721997</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
+      <c r="P13" s="33">
+        <v>99.168063426054971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="17" t="s">
         <v>29</v>
       </c>
@@ -1237,8 +1272,12 @@
       <c r="C14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>39</v>
+      </c>
       <c r="F14" s="25">
         <v>28.731700012670331</v>
       </c>
@@ -1269,8 +1308,11 @@
       <c r="O14" s="34">
         <v>64.805252627098838</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="7.5" customHeight="1">
+      <c r="P14" s="34">
+        <v>70.956108992253434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="13.5" customHeight="1">
       <c r="A15" s="26"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1280,7 +1322,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
